--- a/src/app/assets/docs/BD-generate.xlsx
+++ b/src/app/assets/docs/BD-generate.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Matrix/SynologyDrive/Coderhouse/angular/proyecto-coderhouse-angular/PF-Villarrubia-Moreno/src/app/assets/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A845D88C-0A80-A740-A883-36E54F9835C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C7B5699-59D8-B546-A77D-22954F6DD4A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20380" yWindow="5400" windowWidth="28040" windowHeight="17440" xr2:uid="{93E38513-722E-2944-86A3-84695ED93D4A}"/>
+    <workbookView minimized="1" xWindow="20380" yWindow="5400" windowWidth="28040" windowHeight="17440" xr2:uid="{93E38513-722E-2944-86A3-84695ED93D4A}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="91">
   <si>
     <t>Base de datos</t>
   </si>
@@ -44,135 +44,12 @@
     <t>Nombre</t>
   </si>
   <si>
-    <t>Name-00</t>
-  </si>
-  <si>
     <t>Apelido</t>
   </si>
   <si>
-    <t>Surname-00</t>
-  </si>
-  <si>
     <t>Planetas</t>
   </si>
   <si>
-    <t>Planeta-00</t>
-  </si>
-  <si>
-    <t>Explorador-00</t>
-  </si>
-  <si>
-    <t>Explorador-01</t>
-  </si>
-  <si>
-    <t>Name-01</t>
-  </si>
-  <si>
-    <t>Surname-01</t>
-  </si>
-  <si>
-    <t>Planeta-01</t>
-  </si>
-  <si>
-    <t>Explorador-02</t>
-  </si>
-  <si>
-    <t>Name-02</t>
-  </si>
-  <si>
-    <t>Surname-02</t>
-  </si>
-  <si>
-    <t>Planeta-02</t>
-  </si>
-  <si>
-    <t>Explorador-03</t>
-  </si>
-  <si>
-    <t>Name-03</t>
-  </si>
-  <si>
-    <t>Surname-03</t>
-  </si>
-  <si>
-    <t>Planeta-03</t>
-  </si>
-  <si>
-    <t>Explorador-04</t>
-  </si>
-  <si>
-    <t>Name-04</t>
-  </si>
-  <si>
-    <t>Surname-04</t>
-  </si>
-  <si>
-    <t>Planeta-04</t>
-  </si>
-  <si>
-    <t>Explorador-05</t>
-  </si>
-  <si>
-    <t>Name-05</t>
-  </si>
-  <si>
-    <t>Surname-05</t>
-  </si>
-  <si>
-    <t>Planeta-05</t>
-  </si>
-  <si>
-    <t>Explorador-06</t>
-  </si>
-  <si>
-    <t>Name-06</t>
-  </si>
-  <si>
-    <t>Surname-06</t>
-  </si>
-  <si>
-    <t>Planeta-06</t>
-  </si>
-  <si>
-    <t>Explorador-07</t>
-  </si>
-  <si>
-    <t>Name-07</t>
-  </si>
-  <si>
-    <t>Surname-07</t>
-  </si>
-  <si>
-    <t>Planeta-07</t>
-  </si>
-  <si>
-    <t>Explorador-08</t>
-  </si>
-  <si>
-    <t>Name-08</t>
-  </si>
-  <si>
-    <t>Surname-08</t>
-  </si>
-  <si>
-    <t>Planeta-08</t>
-  </si>
-  <si>
-    <t>Explorador-09</t>
-  </si>
-  <si>
-    <t>Name-09</t>
-  </si>
-  <si>
-    <t>Surname-09</t>
-  </si>
-  <si>
-    <t>Planeta-09</t>
-  </si>
-  <si>
-    <t>Explorador-10</t>
-  </si>
-  <si>
     <t>Name-10</t>
   </si>
   <si>
@@ -182,9 +59,6 @@
     <t>Planeta-10</t>
   </si>
   <si>
-    <t>Explorador-11</t>
-  </si>
-  <si>
     <t>Name-11</t>
   </si>
   <si>
@@ -194,9 +68,6 @@
     <t>Planeta-11</t>
   </si>
   <si>
-    <t>Explorador-12</t>
-  </si>
-  <si>
     <t>Name-12</t>
   </si>
   <si>
@@ -206,9 +77,6 @@
     <t>Planeta-12</t>
   </si>
   <si>
-    <t>Explorador-13</t>
-  </si>
-  <si>
     <t>Name-13</t>
   </si>
   <si>
@@ -218,9 +86,6 @@
     <t>Planeta-13</t>
   </si>
   <si>
-    <t>Explorador-14</t>
-  </si>
-  <si>
     <t>Name-14</t>
   </si>
   <si>
@@ -230,9 +95,6 @@
     <t>Planeta-14</t>
   </si>
   <si>
-    <t>Explorador-15</t>
-  </si>
-  <si>
     <t>Name-15</t>
   </si>
   <si>
@@ -242,9 +104,6 @@
     <t>Planeta-15</t>
   </si>
   <si>
-    <t>Explorador-16</t>
-  </si>
-  <si>
     <t>Name-16</t>
   </si>
   <si>
@@ -254,9 +113,6 @@
     <t>Planeta-16</t>
   </si>
   <si>
-    <t>Explorador-17</t>
-  </si>
-  <si>
     <t>Name-17</t>
   </si>
   <si>
@@ -266,9 +122,6 @@
     <t>Planeta-17</t>
   </si>
   <si>
-    <t>Explorador-18</t>
-  </si>
-  <si>
     <t>Name-18</t>
   </si>
   <si>
@@ -278,9 +131,6 @@
     <t>Planeta-18</t>
   </si>
   <si>
-    <t>Explorador-19</t>
-  </si>
-  <si>
     <t>Name-19</t>
   </si>
   <si>
@@ -290,9 +140,6 @@
     <t>Planeta-19</t>
   </si>
   <si>
-    <t>Explorador-20</t>
-  </si>
-  <si>
     <t>Name-20</t>
   </si>
   <si>
@@ -302,9 +149,6 @@
     <t>Planeta-20</t>
   </si>
   <si>
-    <t>Explorador-21</t>
-  </si>
-  <si>
     <t>Name-21</t>
   </si>
   <si>
@@ -314,9 +158,6 @@
     <t>Planeta-21</t>
   </si>
   <si>
-    <t>Explorador-22</t>
-  </si>
-  <si>
     <t>Name-22</t>
   </si>
   <si>
@@ -326,9 +167,6 @@
     <t>Planeta-22</t>
   </si>
   <si>
-    <t>Explorador-23</t>
-  </si>
-  <si>
     <t>Name-23</t>
   </si>
   <si>
@@ -338,9 +176,6 @@
     <t>Planeta-23</t>
   </si>
   <si>
-    <t>Explorador-24</t>
-  </si>
-  <si>
     <t>Name-24</t>
   </si>
   <si>
@@ -350,9 +185,6 @@
     <t>Planeta-24</t>
   </si>
   <si>
-    <t>Explorador-25</t>
-  </si>
-  <si>
     <t>Name-25</t>
   </si>
   <si>
@@ -360,6 +192,123 @@
   </si>
   <si>
     <t>Planeta-25</t>
+  </si>
+  <si>
+    <t>];</t>
+  </si>
+  <si>
+    <t>},</t>
+  </si>
+  <si>
+    <t>{</t>
+  </si>
+  <si>
+    <t>name:</t>
+  </si>
+  <si>
+    <t>,</t>
+  </si>
+  <si>
+    <t>surname:</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>id:</t>
+  </si>
+  <si>
+    <t>Name-0</t>
+  </si>
+  <si>
+    <t>Surname-0</t>
+  </si>
+  <si>
+    <t>Planeta-0</t>
+  </si>
+  <si>
+    <t>Name-1</t>
+  </si>
+  <si>
+    <t>Surname-1</t>
+  </si>
+  <si>
+    <t>Planeta-1</t>
+  </si>
+  <si>
+    <t>Name-2</t>
+  </si>
+  <si>
+    <t>Surname-2</t>
+  </si>
+  <si>
+    <t>Planeta-2</t>
+  </si>
+  <si>
+    <t>Name-3</t>
+  </si>
+  <si>
+    <t>Surname-3</t>
+  </si>
+  <si>
+    <t>Planeta-3</t>
+  </si>
+  <si>
+    <t>Name-4</t>
+  </si>
+  <si>
+    <t>Surname-4</t>
+  </si>
+  <si>
+    <t>Planeta-4</t>
+  </si>
+  <si>
+    <t>Name-5</t>
+  </si>
+  <si>
+    <t>Surname-5</t>
+  </si>
+  <si>
+    <t>Planeta-5</t>
+  </si>
+  <si>
+    <t>Name-6</t>
+  </si>
+  <si>
+    <t>Surname-6</t>
+  </si>
+  <si>
+    <t>Planeta-6</t>
+  </si>
+  <si>
+    <t>Name-7</t>
+  </si>
+  <si>
+    <t>Surname-7</t>
+  </si>
+  <si>
+    <t>Planeta-7</t>
+  </si>
+  <si>
+    <t>Name-8</t>
+  </si>
+  <si>
+    <t>Surname-8</t>
+  </si>
+  <si>
+    <t>Planeta-8</t>
+  </si>
+  <si>
+    <t>Name-9</t>
+  </si>
+  <si>
+    <t>Surname-9</t>
+  </si>
+  <si>
+    <t>Planeta-9</t>
+  </si>
+  <si>
+    <t>Explorer:[] =[</t>
   </si>
 </sst>
 </file>
@@ -745,396 +694,1047 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA288599-E2E0-7E4C-A761-1E0B19B2E0C0}">
-  <dimension ref="A1:D27"/>
+  <dimension ref="A1:M28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="29.6640625" customWidth="1"/>
-    <col min="2" max="2" width="23.6640625" customWidth="1"/>
-    <col min="3" max="3" width="18.1640625" customWidth="1"/>
-    <col min="4" max="4" width="24.33203125" customWidth="1"/>
+    <col min="1" max="1" width="16" customWidth="1"/>
+    <col min="2" max="2" width="3.33203125" customWidth="1"/>
+    <col min="3" max="3" width="4.1640625" customWidth="1"/>
+    <col min="4" max="4" width="6.83203125" customWidth="1"/>
+    <col min="5" max="5" width="2.83203125" customWidth="1"/>
+    <col min="6" max="6" width="7" customWidth="1"/>
+    <col min="7" max="7" width="15" customWidth="1"/>
+    <col min="8" max="8" width="2.83203125" customWidth="1"/>
+    <col min="9" max="9" width="8.33203125" customWidth="1"/>
+    <col min="10" max="10" width="15.6640625" customWidth="1"/>
+    <col min="11" max="11" width="2.83203125" customWidth="1"/>
+    <col min="12" max="12" width="9.5" customWidth="1"/>
+    <col min="13" max="13" width="18.1640625" customWidth="1"/>
+    <col min="14" max="14" width="2.83203125" customWidth="1"/>
+    <col min="15" max="15" width="24.33203125" customWidth="1"/>
+    <col min="16" max="16" width="2.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E1" s="1"/>
+      <c r="G1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G2" t="s">
+        <v>60</v>
+      </c>
+      <c r="H2" t="s">
+        <v>56</v>
+      </c>
+      <c r="I2" t="s">
+        <v>57</v>
+      </c>
+      <c r="J2" t="s">
+        <v>61</v>
+      </c>
+      <c r="K2" t="s">
+        <v>56</v>
+      </c>
+      <c r="L2" t="s">
+        <v>62</v>
+      </c>
+      <c r="M2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3" t="s">
+        <v>56</v>
+      </c>
+      <c r="F3" t="s">
+        <v>55</v>
+      </c>
+      <c r="G3" t="s">
+        <v>63</v>
+      </c>
+      <c r="H3" t="s">
+        <v>56</v>
+      </c>
+      <c r="I3" t="s">
+        <v>57</v>
+      </c>
+      <c r="J3" t="s">
+        <v>64</v>
+      </c>
+      <c r="K3" t="s">
+        <v>56</v>
+      </c>
+      <c r="L3" t="s">
+        <v>65</v>
+      </c>
+      <c r="M3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+      <c r="E4" t="s">
+        <v>56</v>
+      </c>
+      <c r="F4" t="s">
+        <v>55</v>
+      </c>
+      <c r="G4" t="s">
+        <v>66</v>
+      </c>
+      <c r="H4" t="s">
+        <v>56</v>
+      </c>
+      <c r="I4" t="s">
+        <v>57</v>
+      </c>
+      <c r="J4" t="s">
+        <v>67</v>
+      </c>
+      <c r="K4" t="s">
+        <v>56</v>
+      </c>
+      <c r="L4" t="s">
+        <v>68</v>
+      </c>
+      <c r="M4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C5" t="s">
+        <v>59</v>
+      </c>
+      <c r="D5">
+        <v>3</v>
+      </c>
+      <c r="E5" t="s">
+        <v>56</v>
+      </c>
+      <c r="F5" t="s">
+        <v>55</v>
+      </c>
+      <c r="G5" t="s">
+        <v>69</v>
+      </c>
+      <c r="H5" t="s">
+        <v>56</v>
+      </c>
+      <c r="I5" t="s">
+        <v>57</v>
+      </c>
+      <c r="J5" t="s">
+        <v>70</v>
+      </c>
+      <c r="K5" t="s">
+        <v>56</v>
+      </c>
+      <c r="L5" t="s">
+        <v>71</v>
+      </c>
+      <c r="M5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C6" t="s">
+        <v>59</v>
+      </c>
+      <c r="D6">
+        <v>4</v>
+      </c>
+      <c r="E6" t="s">
+        <v>56</v>
+      </c>
+      <c r="F6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G6" t="s">
+        <v>72</v>
+      </c>
+      <c r="H6" t="s">
+        <v>56</v>
+      </c>
+      <c r="I6" t="s">
+        <v>57</v>
+      </c>
+      <c r="J6" t="s">
+        <v>73</v>
+      </c>
+      <c r="K6" t="s">
+        <v>56</v>
+      </c>
+      <c r="L6" t="s">
+        <v>74</v>
+      </c>
+      <c r="M6" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>54</v>
+      </c>
+      <c r="C7" t="s">
+        <v>59</v>
+      </c>
+      <c r="D7">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="E7" t="s">
+        <v>56</v>
+      </c>
+      <c r="F7" t="s">
+        <v>55</v>
+      </c>
+      <c r="G7" t="s">
+        <v>75</v>
+      </c>
+      <c r="H7" t="s">
+        <v>56</v>
+      </c>
+      <c r="I7" t="s">
+        <v>57</v>
+      </c>
+      <c r="J7" t="s">
+        <v>76</v>
+      </c>
+      <c r="K7" t="s">
+        <v>56</v>
+      </c>
+      <c r="L7" t="s">
+        <v>77</v>
+      </c>
+      <c r="M7" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>54</v>
+      </c>
+      <c r="C8" t="s">
+        <v>59</v>
+      </c>
+      <c r="D8">
+        <v>6</v>
+      </c>
+      <c r="E8" t="s">
+        <v>56</v>
+      </c>
+      <c r="F8" t="s">
+        <v>55</v>
+      </c>
+      <c r="G8" t="s">
+        <v>78</v>
+      </c>
+      <c r="H8" t="s">
+        <v>56</v>
+      </c>
+      <c r="I8" t="s">
+        <v>57</v>
+      </c>
+      <c r="J8" t="s">
+        <v>79</v>
+      </c>
+      <c r="K8" t="s">
+        <v>56</v>
+      </c>
+      <c r="L8" t="s">
+        <v>80</v>
+      </c>
+      <c r="M8" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
+        <v>54</v>
+      </c>
+      <c r="C9" t="s">
+        <v>59</v>
+      </c>
+      <c r="D9">
         <v>7</v>
       </c>
-      <c r="B2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="E9" t="s">
+        <v>56</v>
+      </c>
+      <c r="F9" t="s">
+        <v>55</v>
+      </c>
+      <c r="G9" t="s">
+        <v>81</v>
+      </c>
+      <c r="H9" t="s">
+        <v>56</v>
+      </c>
+      <c r="I9" t="s">
+        <v>57</v>
+      </c>
+      <c r="J9" t="s">
+        <v>82</v>
+      </c>
+      <c r="K9" t="s">
+        <v>56</v>
+      </c>
+      <c r="L9" t="s">
+        <v>83</v>
+      </c>
+      <c r="M9" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
+        <v>54</v>
+      </c>
+      <c r="C10" t="s">
+        <v>59</v>
+      </c>
+      <c r="D10">
+        <v>8</v>
+      </c>
+      <c r="E10" t="s">
+        <v>56</v>
+      </c>
+      <c r="F10" t="s">
+        <v>55</v>
+      </c>
+      <c r="G10" t="s">
+        <v>84</v>
+      </c>
+      <c r="H10" t="s">
+        <v>56</v>
+      </c>
+      <c r="I10" t="s">
+        <v>57</v>
+      </c>
+      <c r="J10" t="s">
+        <v>85</v>
+      </c>
+      <c r="K10" t="s">
+        <v>56</v>
+      </c>
+      <c r="L10" t="s">
+        <v>86</v>
+      </c>
+      <c r="M10" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
+        <v>54</v>
+      </c>
+      <c r="C11" t="s">
+        <v>59</v>
+      </c>
+      <c r="D11">
+        <v>9</v>
+      </c>
+      <c r="E11" t="s">
+        <v>56</v>
+      </c>
+      <c r="F11" t="s">
+        <v>55</v>
+      </c>
+      <c r="G11" t="s">
+        <v>87</v>
+      </c>
+      <c r="H11" t="s">
+        <v>56</v>
+      </c>
+      <c r="I11" t="s">
+        <v>57</v>
+      </c>
+      <c r="J11" t="s">
+        <v>88</v>
+      </c>
+      <c r="K11" t="s">
+        <v>56</v>
+      </c>
+      <c r="L11" t="s">
+        <v>89</v>
+      </c>
+      <c r="M11" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B12" t="s">
+        <v>54</v>
+      </c>
+      <c r="C12" t="s">
+        <v>59</v>
+      </c>
+      <c r="D12">
+        <v>10</v>
+      </c>
+      <c r="E12" t="s">
+        <v>56</v>
+      </c>
+      <c r="F12" t="s">
+        <v>55</v>
+      </c>
+      <c r="G12" t="s">
         <v>4</v>
       </c>
-      <c r="D2" t="s">
+      <c r="H12" t="s">
+        <v>56</v>
+      </c>
+      <c r="I12" t="s">
+        <v>57</v>
+      </c>
+      <c r="J12" t="s">
+        <v>5</v>
+      </c>
+      <c r="K12" t="s">
+        <v>56</v>
+      </c>
+      <c r="L12" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="M12" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B13" t="s">
+        <v>54</v>
+      </c>
+      <c r="C13" t="s">
+        <v>59</v>
+      </c>
+      <c r="D13">
+        <v>11</v>
+      </c>
+      <c r="E13" t="s">
+        <v>56</v>
+      </c>
+      <c r="F13" t="s">
+        <v>55</v>
+      </c>
+      <c r="G13" t="s">
+        <v>7</v>
+      </c>
+      <c r="H13" t="s">
+        <v>56</v>
+      </c>
+      <c r="I13" t="s">
+        <v>57</v>
+      </c>
+      <c r="J13" t="s">
         <v>8</v>
       </c>
-      <c r="B3" t="s">
+      <c r="K13" t="s">
+        <v>56</v>
+      </c>
+      <c r="L13" t="s">
         <v>9</v>
       </c>
-      <c r="C3" t="s">
+      <c r="M13" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B14" t="s">
+        <v>54</v>
+      </c>
+      <c r="C14" t="s">
+        <v>59</v>
+      </c>
+      <c r="D14">
+        <v>12</v>
+      </c>
+      <c r="E14" t="s">
+        <v>56</v>
+      </c>
+      <c r="F14" t="s">
+        <v>55</v>
+      </c>
+      <c r="G14" t="s">
         <v>10</v>
       </c>
-      <c r="D3" t="s">
+      <c r="H14" t="s">
+        <v>56</v>
+      </c>
+      <c r="I14" t="s">
+        <v>57</v>
+      </c>
+      <c r="J14" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="K14" t="s">
+        <v>56</v>
+      </c>
+      <c r="L14" t="s">
         <v>12</v>
       </c>
-      <c r="B4" t="s">
+      <c r="M14" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B15" t="s">
+        <v>54</v>
+      </c>
+      <c r="C15" t="s">
+        <v>59</v>
+      </c>
+      <c r="D15">
         <v>13</v>
       </c>
-      <c r="C4" t="s">
+      <c r="E15" t="s">
+        <v>56</v>
+      </c>
+      <c r="F15" t="s">
+        <v>55</v>
+      </c>
+      <c r="G15" t="s">
+        <v>13</v>
+      </c>
+      <c r="H15" t="s">
+        <v>56</v>
+      </c>
+      <c r="I15" t="s">
+        <v>57</v>
+      </c>
+      <c r="J15" t="s">
         <v>14</v>
       </c>
-      <c r="D4" t="s">
+      <c r="K15" t="s">
+        <v>56</v>
+      </c>
+      <c r="L15" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+      <c r="M15" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B16" t="s">
+        <v>54</v>
+      </c>
+      <c r="C16" t="s">
+        <v>59</v>
+      </c>
+      <c r="D16">
+        <v>14</v>
+      </c>
+      <c r="E16" t="s">
+        <v>56</v>
+      </c>
+      <c r="F16" t="s">
+        <v>55</v>
+      </c>
+      <c r="G16" t="s">
         <v>16</v>
       </c>
-      <c r="B5" t="s">
+      <c r="H16" t="s">
+        <v>56</v>
+      </c>
+      <c r="I16" t="s">
+        <v>57</v>
+      </c>
+      <c r="J16" t="s">
         <v>17</v>
       </c>
-      <c r="C5" t="s">
+      <c r="K16" t="s">
+        <v>56</v>
+      </c>
+      <c r="L16" t="s">
         <v>18</v>
       </c>
-      <c r="D5" t="s">
+      <c r="M16" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B17" t="s">
+        <v>54</v>
+      </c>
+      <c r="C17" t="s">
+        <v>59</v>
+      </c>
+      <c r="D17">
+        <v>15</v>
+      </c>
+      <c r="E17" t="s">
+        <v>56</v>
+      </c>
+      <c r="F17" t="s">
+        <v>55</v>
+      </c>
+      <c r="G17" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+      <c r="H17" t="s">
+        <v>56</v>
+      </c>
+      <c r="I17" t="s">
+        <v>57</v>
+      </c>
+      <c r="J17" t="s">
         <v>20</v>
       </c>
-      <c r="B6" t="s">
+      <c r="K17" t="s">
+        <v>56</v>
+      </c>
+      <c r="L17" t="s">
         <v>21</v>
       </c>
-      <c r="C6" t="s">
+      <c r="M17" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B18" t="s">
+        <v>54</v>
+      </c>
+      <c r="C18" t="s">
+        <v>59</v>
+      </c>
+      <c r="D18">
+        <v>16</v>
+      </c>
+      <c r="E18" t="s">
+        <v>56</v>
+      </c>
+      <c r="F18" t="s">
+        <v>55</v>
+      </c>
+      <c r="G18" t="s">
         <v>22</v>
       </c>
-      <c r="D6" t="s">
+      <c r="H18" t="s">
+        <v>56</v>
+      </c>
+      <c r="I18" t="s">
+        <v>57</v>
+      </c>
+      <c r="J18" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+      <c r="K18" t="s">
+        <v>56</v>
+      </c>
+      <c r="L18" t="s">
         <v>24</v>
       </c>
-      <c r="B7" t="s">
+      <c r="M18" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B19" t="s">
+        <v>54</v>
+      </c>
+      <c r="C19" t="s">
+        <v>59</v>
+      </c>
+      <c r="D19">
+        <v>17</v>
+      </c>
+      <c r="E19" t="s">
+        <v>56</v>
+      </c>
+      <c r="F19" t="s">
+        <v>55</v>
+      </c>
+      <c r="G19" t="s">
         <v>25</v>
       </c>
-      <c r="C7" t="s">
+      <c r="H19" t="s">
+        <v>56</v>
+      </c>
+      <c r="I19" t="s">
+        <v>57</v>
+      </c>
+      <c r="J19" t="s">
         <v>26</v>
       </c>
-      <c r="D7" t="s">
+      <c r="K19" t="s">
+        <v>56</v>
+      </c>
+      <c r="L19" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+      <c r="M19" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B20" t="s">
+        <v>54</v>
+      </c>
+      <c r="C20" t="s">
+        <v>59</v>
+      </c>
+      <c r="D20">
+        <v>18</v>
+      </c>
+      <c r="E20" t="s">
+        <v>56</v>
+      </c>
+      <c r="F20" t="s">
+        <v>55</v>
+      </c>
+      <c r="G20" t="s">
         <v>28</v>
       </c>
-      <c r="B8" t="s">
+      <c r="H20" t="s">
+        <v>56</v>
+      </c>
+      <c r="I20" t="s">
+        <v>57</v>
+      </c>
+      <c r="J20" t="s">
         <v>29</v>
       </c>
-      <c r="C8" t="s">
+      <c r="K20" t="s">
+        <v>56</v>
+      </c>
+      <c r="L20" t="s">
         <v>30</v>
       </c>
-      <c r="D8" t="s">
+      <c r="M20" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B21" t="s">
+        <v>54</v>
+      </c>
+      <c r="C21" t="s">
+        <v>59</v>
+      </c>
+      <c r="D21">
+        <v>19</v>
+      </c>
+      <c r="E21" t="s">
+        <v>56</v>
+      </c>
+      <c r="F21" t="s">
+        <v>55</v>
+      </c>
+      <c r="G21" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+      <c r="H21" t="s">
+        <v>56</v>
+      </c>
+      <c r="I21" t="s">
+        <v>57</v>
+      </c>
+      <c r="J21" t="s">
         <v>32</v>
       </c>
-      <c r="B9" t="s">
+      <c r="K21" t="s">
+        <v>56</v>
+      </c>
+      <c r="L21" t="s">
         <v>33</v>
       </c>
-      <c r="C9" t="s">
+      <c r="M21" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B22" t="s">
+        <v>54</v>
+      </c>
+      <c r="C22" t="s">
+        <v>59</v>
+      </c>
+      <c r="D22">
+        <v>20</v>
+      </c>
+      <c r="E22" t="s">
+        <v>56</v>
+      </c>
+      <c r="F22" t="s">
+        <v>55</v>
+      </c>
+      <c r="G22" t="s">
         <v>34</v>
       </c>
-      <c r="D9" t="s">
+      <c r="H22" t="s">
+        <v>56</v>
+      </c>
+      <c r="I22" t="s">
+        <v>57</v>
+      </c>
+      <c r="J22" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+      <c r="K22" t="s">
+        <v>56</v>
+      </c>
+      <c r="L22" t="s">
         <v>36</v>
       </c>
-      <c r="B10" t="s">
+      <c r="M22" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B23" t="s">
+        <v>54</v>
+      </c>
+      <c r="C23" t="s">
+        <v>59</v>
+      </c>
+      <c r="D23">
+        <v>21</v>
+      </c>
+      <c r="E23" t="s">
+        <v>56</v>
+      </c>
+      <c r="F23" t="s">
+        <v>55</v>
+      </c>
+      <c r="G23" t="s">
         <v>37</v>
       </c>
-      <c r="C10" t="s">
+      <c r="H23" t="s">
+        <v>56</v>
+      </c>
+      <c r="I23" t="s">
+        <v>57</v>
+      </c>
+      <c r="J23" t="s">
         <v>38</v>
       </c>
-      <c r="D10" t="s">
+      <c r="K23" t="s">
+        <v>56</v>
+      </c>
+      <c r="L23" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+      <c r="M23" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B24" t="s">
+        <v>54</v>
+      </c>
+      <c r="C24" t="s">
+        <v>59</v>
+      </c>
+      <c r="D24">
+        <v>22</v>
+      </c>
+      <c r="E24" t="s">
+        <v>56</v>
+      </c>
+      <c r="F24" t="s">
+        <v>55</v>
+      </c>
+      <c r="G24" t="s">
         <v>40</v>
       </c>
-      <c r="B11" t="s">
+      <c r="H24" t="s">
+        <v>56</v>
+      </c>
+      <c r="I24" t="s">
+        <v>57</v>
+      </c>
+      <c r="J24" t="s">
         <v>41</v>
       </c>
-      <c r="C11" t="s">
+      <c r="K24" t="s">
+        <v>56</v>
+      </c>
+      <c r="L24" t="s">
         <v>42</v>
       </c>
-      <c r="D11" t="s">
+      <c r="M24" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B25" t="s">
+        <v>54</v>
+      </c>
+      <c r="C25" t="s">
+        <v>59</v>
+      </c>
+      <c r="D25">
+        <v>23</v>
+      </c>
+      <c r="E25" t="s">
+        <v>56</v>
+      </c>
+      <c r="F25" t="s">
+        <v>55</v>
+      </c>
+      <c r="G25" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+      <c r="H25" t="s">
+        <v>56</v>
+      </c>
+      <c r="I25" t="s">
+        <v>57</v>
+      </c>
+      <c r="J25" t="s">
         <v>44</v>
       </c>
-      <c r="B12" t="s">
+      <c r="K25" t="s">
+        <v>56</v>
+      </c>
+      <c r="L25" t="s">
         <v>45</v>
       </c>
-      <c r="C12" t="s">
+      <c r="M25" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B26" t="s">
+        <v>54</v>
+      </c>
+      <c r="C26" t="s">
+        <v>59</v>
+      </c>
+      <c r="D26">
+        <v>24</v>
+      </c>
+      <c r="E26" t="s">
+        <v>56</v>
+      </c>
+      <c r="F26" t="s">
+        <v>55</v>
+      </c>
+      <c r="G26" t="s">
         <v>46</v>
       </c>
-      <c r="D12" t="s">
+      <c r="H26" t="s">
+        <v>56</v>
+      </c>
+      <c r="I26" t="s">
+        <v>57</v>
+      </c>
+      <c r="J26" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
+      <c r="K26" t="s">
+        <v>56</v>
+      </c>
+      <c r="L26" t="s">
         <v>48</v>
       </c>
-      <c r="B13" t="s">
+      <c r="M26" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B27" t="s">
+        <v>54</v>
+      </c>
+      <c r="C27" t="s">
+        <v>59</v>
+      </c>
+      <c r="D27">
+        <v>25</v>
+      </c>
+      <c r="E27" t="s">
+        <v>56</v>
+      </c>
+      <c r="F27" t="s">
+        <v>55</v>
+      </c>
+      <c r="G27" t="s">
         <v>49</v>
       </c>
-      <c r="C13" t="s">
+      <c r="H27" t="s">
+        <v>56</v>
+      </c>
+      <c r="I27" t="s">
+        <v>57</v>
+      </c>
+      <c r="J27" t="s">
         <v>50</v>
       </c>
-      <c r="D13" t="s">
+      <c r="K27" t="s">
+        <v>56</v>
+      </c>
+      <c r="L27" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
+      <c r="M27" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
         <v>52</v>
-      </c>
-      <c r="B14" t="s">
-        <v>53</v>
-      </c>
-      <c r="C14" t="s">
-        <v>54</v>
-      </c>
-      <c r="D14" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>56</v>
-      </c>
-      <c r="B15" t="s">
-        <v>57</v>
-      </c>
-      <c r="C15" t="s">
-        <v>58</v>
-      </c>
-      <c r="D15" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>60</v>
-      </c>
-      <c r="B16" t="s">
-        <v>61</v>
-      </c>
-      <c r="C16" t="s">
-        <v>62</v>
-      </c>
-      <c r="D16" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>64</v>
-      </c>
-      <c r="B17" t="s">
-        <v>65</v>
-      </c>
-      <c r="C17" t="s">
-        <v>66</v>
-      </c>
-      <c r="D17" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>68</v>
-      </c>
-      <c r="B18" t="s">
-        <v>69</v>
-      </c>
-      <c r="C18" t="s">
-        <v>70</v>
-      </c>
-      <c r="D18" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>72</v>
-      </c>
-      <c r="B19" t="s">
-        <v>73</v>
-      </c>
-      <c r="C19" t="s">
-        <v>74</v>
-      </c>
-      <c r="D19" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>76</v>
-      </c>
-      <c r="B20" t="s">
-        <v>77</v>
-      </c>
-      <c r="C20" t="s">
-        <v>78</v>
-      </c>
-      <c r="D20" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>80</v>
-      </c>
-      <c r="B21" t="s">
-        <v>81</v>
-      </c>
-      <c r="C21" t="s">
-        <v>82</v>
-      </c>
-      <c r="D21" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>84</v>
-      </c>
-      <c r="B22" t="s">
-        <v>85</v>
-      </c>
-      <c r="C22" t="s">
-        <v>86</v>
-      </c>
-      <c r="D22" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>88</v>
-      </c>
-      <c r="B23" t="s">
-        <v>89</v>
-      </c>
-      <c r="C23" t="s">
-        <v>90</v>
-      </c>
-      <c r="D23" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>92</v>
-      </c>
-      <c r="B24" t="s">
-        <v>93</v>
-      </c>
-      <c r="C24" t="s">
-        <v>94</v>
-      </c>
-      <c r="D24" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>96</v>
-      </c>
-      <c r="B25" t="s">
-        <v>97</v>
-      </c>
-      <c r="C25" t="s">
-        <v>98</v>
-      </c>
-      <c r="D25" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>100</v>
-      </c>
-      <c r="B26" t="s">
-        <v>101</v>
-      </c>
-      <c r="C26" t="s">
-        <v>102</v>
-      </c>
-      <c r="D26" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>104</v>
-      </c>
-      <c r="B27" t="s">
-        <v>105</v>
-      </c>
-      <c r="C27" t="s">
-        <v>106</v>
-      </c>
-      <c r="D27" t="s">
-        <v>107</v>
       </c>
     </row>
   </sheetData>
